--- a/[For candidate] de_challenge_data.xlsx
+++ b/[For candidate] de_challenge_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artthunder/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Coraline-Interview-Challenge-Data-Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F34F86-C46F-1A40-83A5-9F3C4811F038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05344C6F-05E3-47A8-912A-34354F5EEFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="24" r:id="rId1"/>
@@ -19,19 +19,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -865,7 +854,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -875,7 +864,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -894,7 +883,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -904,7 +893,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -917,14 +906,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="187" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="188" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -938,7 +927,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -946,7 +935,7 @@
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -954,7 +943,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -962,7 +951,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1001,10 +990,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
@@ -1030,7 +1019,7 @@
       <alignment relativeIndent="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+      <numFmt numFmtId="187" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="right"/>
@@ -1068,7 +1057,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[de_challenge_data.xlsx]CatReg!PivotTable1</c:name>
+    <c:name>[(For candidate) de_challenge_data.xlsx]CatReg!PivotTable1</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -1116,7 +1105,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-TH"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1172,7 +1161,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-TH"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1228,7 +1217,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-TH"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1284,7 +1273,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-TH"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1340,7 +1329,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-TH"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1396,7 +1385,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-TH"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1613,7 +1602,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-TH"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1201070144"/>
@@ -1672,7 +1661,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-TH"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1130013600"/>
@@ -1724,7 +1713,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-TH"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1758,7 +1747,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-TH"/>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2372,13 +2361,13 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Microsoft Office User" refreshedDate="45132.76327372685" missingItemsLimit="0" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="244" xr:uid="{AB7A73E4-ED3A-4E18-9B26-B5A342D64111}">
   <cacheSource type="worksheet">
-    <worksheetSource name="Sales_Data"/>
+    <worksheetSource name="Sales_Data" sheet=" de_challenge_data.xlsx" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="ID" numFmtId="14">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Date" numFmtId="165">
+    <cacheField name="Date" numFmtId="188">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-01-01T00:00:00" maxDate="2023-12-31T00:00:00"/>
     </cacheField>
     <cacheField name="Region" numFmtId="0">
@@ -5109,11 +5098,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D87650E1-9057-4804-ABB0-C28B14306DB9}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D87650E1-9057-4804-ABB0-C28B14306DB9}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="165" showAll="0"/>
+    <pivotField compact="0" numFmtId="188" showAll="0"/>
     <pivotField axis="axisCol" compact="0" showAll="0">
       <items count="3">
         <item x="0"/>
@@ -5171,7 +5160,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of TotalPrice" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of TotalPrice" fld="8" baseField="0" baseItem="0" numFmtId="187"/>
   </dataFields>
   <formats count="6">
     <format dxfId="5">
@@ -5264,9 +5253,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5304,9 +5293,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5339,26 +5328,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5391,26 +5363,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5590,19 +5545,19 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>277</v>
       </c>
@@ -5616,16 +5571,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BD3CCB-8AE1-2449-AE45-55DA3C220010}">
   <dimension ref="A1:I249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.84375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="11">
         <v>2022</v>
       </c>
@@ -5638,7 +5593,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
@@ -5667,7 +5622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -5697,7 +5652,7 @@
         <v>58.41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -5727,7 +5682,7 @@
         <v>303.63</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -5757,7 +5712,7 @@
         <v>108.46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -5787,7 +5742,7 @@
         <v>153.34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -5817,7 +5772,7 @@
         <v>82.84</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -5847,7 +5802,7 @@
         <v>95.58</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -5877,7 +5832,7 @@
         <v>520.01</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -5907,7 +5862,7 @@
         <v>90.27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -5937,7 +5892,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -5967,7 +5922,7 @@
         <v>37.800000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -5997,7 +5952,7 @@
         <v>78.48</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -6027,7 +5982,7 @@
         <v>57.97</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -6057,7 +6012,7 @@
         <v>97.72</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -6087,7 +6042,7 @@
         <v>77.88</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -6117,7 +6072,7 @@
         <v>40.71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -6147,7 +6102,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -6177,7 +6132,7 @@
         <v>93.739999999999981</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -6207,7 +6162,7 @@
         <v>349.32</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -6237,7 +6192,7 @@
         <v>78.540000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -6267,7 +6222,7 @@
         <v>93.72</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -6297,7 +6252,7 @@
         <v>158.94999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -6327,7 +6282,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -6357,7 +6312,7 @@
         <v>107.97</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -6387,7 +6342,7 @@
         <v>139.6</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -6417,7 +6372,7 @@
         <v>160.82</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -6447,7 +6402,7 @@
         <v>67.260000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -6477,7 +6432,7 @@
         <v>114.24</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -6507,7 +6462,7 @@
         <v>72.930000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -6537,7 +6492,7 @@
         <v>192.61</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -6567,7 +6522,7 @@
         <v>548.12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -6597,7 +6552,7 @@
         <v>102.66</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -6627,7 +6582,7 @@
         <v>114.24</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -6657,7 +6612,7 @@
         <v>161.07</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -6687,7 +6642,7 @@
         <v>80.27</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -6717,7 +6672,7 @@
         <v>47.04</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -6747,7 +6702,7 @@
         <v>84.96</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -6777,7 +6732,7 @@
         <v>225.12</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -6807,7 +6762,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -6837,7 +6792,7 @@
         <v>93.81</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -6867,7 +6822,7 @@
         <v>107.52</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -6897,7 +6852,7 @@
         <v>117.81</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -6927,7 +6882,7 @@
         <v>196.35</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -6957,7 +6912,7 @@
         <v>391.92</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -6987,7 +6942,7 @@
         <v>44.25</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -7017,7 +6972,7 @@
         <v>73.290000000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -7047,7 +7002,7 @@
         <v>107.97</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -7077,7 +7032,7 @@
         <v>82.32</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -7107,7 +7062,7 @@
         <v>102.85</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -7137,7 +7092,7 @@
         <v>58.860000000000007</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -7167,7 +7122,7 @@
         <v>102.66</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -7197,7 +7152,7 @@
         <v>115.17</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -7227,7 +7182,7 @@
         <v>817.92</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -7257,7 +7212,7 @@
         <v>142.12</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -7287,7 +7242,7 @@
         <v>74.34</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -7317,7 +7272,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>84</v>
       </c>
@@ -7347,7 +7302,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>85</v>
       </c>
@@ -7377,7 +7332,7 @@
         <v>132.62</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -7407,7 +7362,7 @@
         <v>541.62</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -7437,7 +7392,7 @@
         <v>47.04</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -7467,7 +7422,7 @@
         <v>205.7</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -7497,7 +7452,7 @@
         <v>144.84</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>90</v>
       </c>
@@ -7527,7 +7482,7 @@
         <v>92.04</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>91</v>
       </c>
@@ -7557,7 +7512,7 @@
         <v>97.72</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -7587,7 +7542,7 @@
         <v>240.72</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>93</v>
       </c>
@@ -7617,7 +7572,7 @@
         <v>146.58000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -7647,7 +7602,7 @@
         <v>140.25</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>95</v>
       </c>
@@ -7677,7 +7632,7 @@
         <v>134.63999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -7707,7 +7662,7 @@
         <v>159.04</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -7737,7 +7692,7 @@
         <v>95.37</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -7767,7 +7722,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -7797,7 +7752,7 @@
         <v>104.72</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -7827,7 +7782,7 @@
         <v>389.08</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -7857,7 +7812,7 @@
         <v>200.09</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>102</v>
       </c>
@@ -7887,7 +7842,7 @@
         <v>42.48</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -7917,7 +7872,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>104</v>
       </c>
@@ -7947,7 +7902,7 @@
         <v>130.9</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>105</v>
       </c>
@@ -7977,7 +7932,7 @@
         <v>67.58</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -8007,7 +7962,7 @@
         <v>192.93</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>107</v>
       </c>
@@ -8037,7 +7992,7 @@
         <v>73.290000000000006</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>108</v>
       </c>
@@ -8067,7 +8022,7 @@
         <v>149.6</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -8097,7 +8052,7 @@
         <v>140.25</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>110</v>
       </c>
@@ -8127,7 +8082,7 @@
         <v>210.16</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>111</v>
       </c>
@@ -8157,7 +8112,7 @@
         <v>79.650000000000006</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -8187,7 +8142,7 @@
         <v>61.040000000000006</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -8217,7 +8172,7 @@
         <v>253.11</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -8247,7 +8202,7 @@
         <v>85.05</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -8277,7 +8232,7 @@
         <v>235.41</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -8307,7 +8262,7 @@
         <v>239.8</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -8337,7 +8292,7 @@
         <v>121.55</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -8367,7 +8322,7 @@
         <v>61.71</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -8397,7 +8352,7 @@
         <v>176.58</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>120</v>
       </c>
@@ -8427,7 +8382,7 @@
         <v>136.29</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -8457,7 +8412,7 @@
         <v>132.62</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>122</v>
       </c>
@@ -8487,7 +8442,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>123</v>
       </c>
@@ -8517,7 +8472,7 @@
         <v>191.52</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>124</v>
       </c>
@@ -8547,7 +8502,7 @@
         <v>488.32000000000005</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>125</v>
       </c>
@@ -8577,7 +8532,7 @@
         <v>249.57</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -8607,7 +8562,7 @@
         <v>111.68</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>127</v>
       </c>
@@ -8637,7 +8592,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>128</v>
       </c>
@@ -8667,7 +8622,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>129</v>
       </c>
@@ -8697,7 +8652,7 @@
         <v>91.63</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>130</v>
       </c>
@@ -8727,7 +8682,7 @@
         <v>160.54</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>131</v>
       </c>
@@ -8757,7 +8712,7 @@
         <v>69.03</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>132</v>
       </c>
@@ -8787,7 +8742,7 @@
         <v>104.16</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>133</v>
       </c>
@@ -8817,7 +8772,7 @@
         <v>159.30000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>134</v>
       </c>
@@ -8847,7 +8802,7 @@
         <v>224.53999999999996</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>135</v>
       </c>
@@ -8877,7 +8832,7 @@
         <v>90.88</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>136</v>
       </c>
@@ -8907,7 +8862,7 @@
         <v>123.42</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>137</v>
       </c>
@@ -8937,7 +8892,7 @@
         <v>275.48</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>138</v>
       </c>
@@ -8967,7 +8922,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>139</v>
       </c>
@@ -8997,7 +8952,7 @@
         <v>48.72</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>140</v>
       </c>
@@ -9027,7 +8982,7 @@
         <v>162.84</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>141</v>
       </c>
@@ -9057,7 +9012,7 @@
         <v>303.02</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>142</v>
       </c>
@@ -9087,7 +9042,7 @@
         <v>82.36</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>143</v>
       </c>
@@ -9117,7 +9072,7 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>144</v>
       </c>
@@ -9147,7 +9102,7 @@
         <v>67.319999999999993</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>145</v>
       </c>
@@ -9177,7 +9132,7 @@
         <v>143.09</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>146</v>
       </c>
@@ -9207,7 +9162,7 @@
         <v>77.88</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>147</v>
       </c>
@@ -9237,7 +9192,7 @@
         <v>48.72</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>148</v>
       </c>
@@ -9267,7 +9222,7 @@
         <v>516.66</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>149</v>
       </c>
@@ -9297,7 +9252,7 @@
         <v>121.55</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>150</v>
       </c>
@@ -9327,10 +9282,10 @@
         <v>180.94000000000003</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B125" s="3"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
         <v>2022</v>
       </c>
@@ -9343,7 +9298,7 @@
       <c r="H126" s="11"/>
       <c r="I126" s="11"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>26</v>
       </c>
@@ -9372,7 +9327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>151</v>
       </c>
@@ -9402,7 +9357,7 @@
         <v>69.760000000000005</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>152</v>
       </c>
@@ -9432,7 +9387,7 @@
         <v>111.51</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>153</v>
       </c>
@@ -9462,7 +9417,7 @@
         <v>91.35</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>154</v>
       </c>
@@ -9492,7 +9447,7 @@
         <v>143.99</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>155</v>
       </c>
@@ -9522,7 +9477,7 @@
         <v>227.2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>156</v>
       </c>
@@ -9552,7 +9507,7 @@
         <v>180.54</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>157</v>
       </c>
@@ -9582,7 +9537,7 @@
         <v>108.19</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>158</v>
       </c>
@@ -9612,7 +9567,7 @@
         <v>99.12</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>159</v>
       </c>
@@ -9642,7 +9597,7 @@
         <v>113.36000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>160</v>
       </c>
@@ -9672,7 +9627,7 @@
         <v>90.27</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>161</v>
       </c>
@@ -9702,7 +9657,7 @@
         <v>40.32</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>162</v>
       </c>
@@ -9732,7 +9687,7 @@
         <v>126.44000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>163</v>
       </c>
@@ -9762,7 +9717,7 @@
         <v>63.58</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>164</v>
       </c>
@@ -9792,7 +9747,7 @@
         <v>60.18</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>165</v>
       </c>
@@ -9822,7 +9777,7 @@
         <v>35.28</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>166</v>
       </c>
@@ -9852,7 +9807,7 @@
         <v>82.36</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>167</v>
       </c>
@@ -9882,7 +9837,7 @@
         <v>120.36</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>168</v>
       </c>
@@ -9912,7 +9867,7 @@
         <v>97.65</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>169</v>
       </c>
@@ -9942,7 +9897,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>170</v>
       </c>
@@ -9972,7 +9927,7 @@
         <v>433.84</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>171</v>
       </c>
@@ -10002,7 +9957,7 @@
         <v>127.16</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>172</v>
       </c>
@@ -10032,7 +9987,7 @@
         <v>275.48</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>173</v>
       </c>
@@ -10062,7 +10017,7 @@
         <v>160.82</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>174</v>
       </c>
@@ -10092,7 +10047,7 @@
         <v>68.88</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>175</v>
       </c>
@@ -10122,7 +10077,7 @@
         <v>164.61</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>176</v>
       </c>
@@ -10152,7 +10107,7 @@
         <v>78.959999999999994</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>177</v>
       </c>
@@ -10182,7 +10137,7 @@
         <v>182.31</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>178</v>
       </c>
@@ -10212,7 +10167,7 @@
         <v>55.44</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>179</v>
       </c>
@@ -10242,7 +10197,7 @@
         <v>106.59</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>180</v>
       </c>
@@ -10272,7 +10227,7 @@
         <v>184.6</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>181</v>
       </c>
@@ -10302,7 +10257,7 @@
         <v>208.86</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>182</v>
       </c>
@@ -10332,7 +10287,7 @@
         <v>78.48</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>183</v>
       </c>
@@ -10362,7 +10317,7 @@
         <v>349.32</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>184</v>
       </c>
@@ -10392,7 +10347,7 @@
         <v>159.30000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>185</v>
       </c>
@@ -10422,7 +10377,7 @@
         <v>73.290000000000006</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>186</v>
       </c>
@@ -10452,7 +10407,7 @@
         <v>84.96</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>187</v>
       </c>
@@ -10482,7 +10437,7 @@
         <v>40.32</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>188</v>
       </c>
@@ -10512,7 +10467,7 @@
         <v>125.29</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>189</v>
       </c>
@@ -10542,7 +10497,7 @@
         <v>50.49</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>190</v>
       </c>
@@ -10572,7 +10527,7 @@
         <v>366.36</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>191</v>
       </c>
@@ -10602,7 +10557,7 @@
         <v>167.86</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>192</v>
       </c>
@@ -10632,7 +10587,7 @@
         <v>108.46</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>193</v>
       </c>
@@ -10662,7 +10617,7 @@
         <v>87.89</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>194</v>
       </c>
@@ -10692,7 +10647,7 @@
         <v>93.72</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>195</v>
       </c>
@@ -10722,7 +10677,7 @@
         <v>153.34</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>196</v>
       </c>
@@ -10752,7 +10707,7 @@
         <v>102.66</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>197</v>
       </c>
@@ -10782,7 +10737,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>198</v>
       </c>
@@ -10812,7 +10767,7 @@
         <v>80.41</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>199</v>
       </c>
@@ -10842,7 +10797,7 @@
         <v>148.68</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>200</v>
       </c>
@@ -10872,7 +10827,7 @@
         <v>78.48</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>201</v>
       </c>
@@ -10902,7 +10857,7 @@
         <v>124.96</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>202</v>
       </c>
@@ -10932,7 +10887,7 @@
         <v>50.49</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>203</v>
       </c>
@@ -10962,7 +10917,7 @@
         <v>340.8</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>204</v>
       </c>
@@ -10992,7 +10947,7 @@
         <v>90.74</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>205</v>
       </c>
@@ -11022,7 +10977,7 @@
         <v>129.21</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>206</v>
       </c>
@@ -11052,7 +11007,7 @@
         <v>71.06</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>207</v>
       </c>
@@ -11082,7 +11037,7 @@
         <v>113.6</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>208</v>
       </c>
@@ -11112,7 +11067,7 @@
         <v>72.569999999999993</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>209</v>
       </c>
@@ -11142,7 +11097,7 @@
         <v>61.29</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>210</v>
       </c>
@@ -11172,7 +11127,7 @@
         <v>71.06</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>211</v>
       </c>
@@ -11202,7 +11157,7 @@
         <v>118.66</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>212</v>
       </c>
@@ -11232,7 +11187,7 @@
         <v>121.55</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>213</v>
       </c>
@@ -11262,7 +11217,7 @@
         <v>170.4</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -11292,7 +11247,7 @@
         <v>80.66</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>215</v>
       </c>
@@ -11322,7 +11277,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -11352,7 +11307,7 @@
         <v>48.62</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>217</v>
       </c>
@@ -11382,7 +11337,7 @@
         <v>49.94</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -11412,7 +11367,7 @@
         <v>59.84</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>219</v>
       </c>
@@ -11442,7 +11397,7 @@
         <v>80.27</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -11472,7 +11427,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>221</v>
       </c>
@@ -11502,7 +11457,7 @@
         <v>119.68</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -11532,7 +11487,7 @@
         <v>125.67</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>223</v>
       </c>
@@ -11562,7 +11517,7 @@
         <v>196.2</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -11592,7 +11547,7 @@
         <v>107.91999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>225</v>
       </c>
@@ -11622,7 +11577,7 @@
         <v>97.35</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -11652,7 +11607,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>227</v>
       </c>
@@ -11682,7 +11637,7 @@
         <v>60.18</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -11712,7 +11667,7 @@
         <v>72.930000000000007</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>229</v>
       </c>
@@ -11742,7 +11697,7 @@
         <v>116.44</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -11772,7 +11727,7 @@
         <v>72.569999999999993</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>231</v>
       </c>
@@ -11802,7 +11757,7 @@
         <v>296.48</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -11832,7 +11787,7 @@
         <v>44.25</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>233</v>
       </c>
@@ -11862,7 +11817,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>234</v>
       </c>
@@ -11892,7 +11847,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -11922,7 +11877,7 @@
         <v>224.36</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>236</v>
       </c>
@@ -11952,7 +11907,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -11982,7 +11937,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>238</v>
       </c>
@@ -12012,7 +11967,7 @@
         <v>86.73</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -12042,7 +11997,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>240</v>
       </c>
@@ -12072,7 +12027,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -12102,7 +12057,7 @@
         <v>66.150000000000006</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>242</v>
       </c>
@@ -12132,7 +12087,7 @@
         <v>80.41</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -12162,7 +12117,7 @@
         <v>133.47999999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>244</v>
       </c>
@@ -12192,7 +12147,7 @@
         <v>381.5</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -12222,7 +12177,7 @@
         <v>43.01</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>246</v>
       </c>
@@ -12252,7 +12207,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -12282,7 +12237,7 @@
         <v>189.66000000000003</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>248</v>
       </c>
@@ -12312,7 +12267,7 @@
         <v>76.11</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -12342,7 +12297,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>250</v>
       </c>
@@ -12372,7 +12327,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -12402,7 +12357,7 @@
         <v>106.59</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>252</v>
       </c>
@@ -12432,7 +12387,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -12462,7 +12417,7 @@
         <v>44.88</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -12492,7 +12447,7 @@
         <v>155.21</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -12522,7 +12477,7 @@
         <v>352.16</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -12552,7 +12507,7 @@
         <v>242.49</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -12582,7 +12537,7 @@
         <v>318.27999999999997</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>258</v>
       </c>
@@ -12612,7 +12567,7 @@
         <v>63.58</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -12642,7 +12597,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>260</v>
       </c>
@@ -12672,7 +12627,7 @@
         <v>303.02</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -12702,7 +12657,7 @@
         <v>394.57</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>262</v>
       </c>
@@ -12732,7 +12687,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -12762,7 +12717,7 @@
         <v>78.540000000000006</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>264</v>
       </c>
@@ -12792,7 +12747,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -12822,7 +12777,7 @@
         <v>67.260000000000005</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>266</v>
       </c>
@@ -12852,7 +12807,7 @@
         <v>87.25</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -12882,7 +12837,7 @@
         <v>179.52</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>268</v>
       </c>
@@ -12912,7 +12867,7 @@
         <v>74.12</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -12942,7 +12897,7 @@
         <v>458.15</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>270</v>
       </c>
@@ -12972,7 +12927,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -13002,7 +12957,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>272</v>
       </c>
@@ -13049,21 +13004,21 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4609375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>276</v>
       </c>
@@ -13071,7 +13026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -13085,7 +13040,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -13099,7 +13054,7 @@
         <v>10535.570000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -13113,7 +13068,7 @@
         <v>17212.410000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -13127,7 +13082,7 @@
         <v>3339.93</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -13141,7 +13096,7 @@
         <v>2237.67</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>273</v>
       </c>
